--- a/vmware14安装CetOS7搭建cdh5.13.3环境/执行步骤.xlsx
+++ b/vmware14安装CetOS7搭建cdh5.13.3环境/执行步骤.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\hadoop\trunk\vmware14安装CetOS7搭建cdh5.13.3环境\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A78050-B5EB-453B-97CF-DD31124D68E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0938C30D-BBE6-4BCA-9AAC-0C4620C95E1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="990" windowWidth="19365" windowHeight="12930" xr2:uid="{18D9EC7D-D389-4325-8FCA-528397E8F20F}"/>
+    <workbookView xWindow="8505" yWindow="630" windowWidth="19365" windowHeight="12930" xr2:uid="{18D9EC7D-D389-4325-8FCA-528397E8F20F}"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
   <si>
     <t>spark1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,22 @@
   </si>
   <si>
     <t>mysql-server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载mariadb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net-tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动mysql服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录初始密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7D0821-C006-4CE7-A42A-B7C3393B06D7}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -584,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -626,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -668,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -696,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -710,7 +726,7 @@
         <v>13</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -721,10 +737,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -735,10 +751,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -749,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -763,10 +779,106 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D20">
-        <v>0</v>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
